--- a/soccer_players.xlsx
+++ b/soccer_players.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xst-mulo7954\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xst-mulo7954\Documents\MyDemos\jsdemo-read-cvs-xls-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
-    <t xml:space="preserve">FIRST NAME </t>
-  </si>
-  <si>
     <t>LAST NAME</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Millan</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
   </si>
 </sst>
 </file>
@@ -932,9 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -947,155 +945,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>32</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6">
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8">
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
